--- a/TestFiles/sample2/words/word_2.xlsx
+++ b/TestFiles/sample2/words/word_2.xlsx
@@ -385,10 +385,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4988480499999999</v>
+        <v>0.4988480499999994</v>
       </c>
       <c r="B2">
-        <v>0.59727475</v>
+        <v>0.5972747499999995</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -396,10 +396,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.6929129500000006</v>
+        <v>0.6929129500000002</v>
       </c>
       <c r="B3">
-        <v>0.7890749500000003</v>
+        <v>0.7890749499999998</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9452352500000001</v>
+        <v>0.9452352499999996</v>
       </c>
       <c r="B4">
-        <v>1.045346750000001</v>
+        <v>1.04534675</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.17721325</v>
+        <v>1.177213249999999</v>
       </c>
       <c r="B5">
-        <v>1.273137450000001</v>
+        <v>1.27313745</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
